--- a/resultats_traitement.xlsx
+++ b/resultats_traitement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,2142 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>el mot</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>le mot</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Español</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Espagnol</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Éric Freysselinard</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Éric Freysselinard</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Agrégé d'espagnol</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agrégé d'espagnol</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Diplômé de l'Institut d'études politiques de Paris</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diplômé de l'Institut d'études politiques de Paris</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ancien élève de l'ENA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ancien élève de l'ENA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Dictionnaire d'usage du verbe être en espagnol</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dictionnaire d'usage du verbe être en espagnol</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Grammaire de l'espagnol contemporain</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grammaire de l'espagnol contemporain</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L'espagnol par la presse</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>L'espagnol par la presse</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Grammaire et Couverture</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grammaire et Couverture</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ISBN</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ISBN</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Éditions Ophrys</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Éditions Ophrys</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>À mes maîtres de la Sorbonne</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>À mes maîtres de la Sorbonne</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SOLUTIONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PROBLEM 1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PROBLEM 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Part (a)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Part (a)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Step 1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Step 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Let the number of the points in the equation</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Let the number of the points in the equation</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Step 2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Step 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Conclusion</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Conclusion</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PROBLEM 2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PROBLEM 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Let the number of points in the equation</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Let the number of points in the equation</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PROBLEM 3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PROBLEM 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PROBLEM 4</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PROBLEM 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PROBLEM 5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PROBLEM 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PROBLEM 6</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PROBLEM 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PROBLEM 7</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PROBLEM 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PROBLEM 8</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PROBLEM 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PROBLEM 9</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PROBLEM 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PROBLEM 10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PROBLEM 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PROBLEM 11</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PROBLEM 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PROBLEM 12</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PROBLEM 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PROBLEM 13</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PROBLEM 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PROBLEM 14</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PROBLEM 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PROBLEM 15</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PROBLEM 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PROBLEM 16</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PROBLEM 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PROBLEM 17</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PROBLEM 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PROBLEM 18</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PROBLEM 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PROBLEM 19</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PROBLEM 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PROBLEM 20</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PROBLEM 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PROBLEM 21</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PROBLEM 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PROBLEM 22</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PROBLEM 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PROBLEM 23</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PROBLEM 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PROBLEM 24</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PROBLEM 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PROBLEM 25</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>PROBLEM 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PROBLEM 26</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PROBLEM 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PROBLEM 27</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PROBLEM 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>La acción</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>L'action</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>La intención</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>L'intention</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Bouger</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Bouger</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Attraper</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Attraper</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>La distance</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>La distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>La situation</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>La situation</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>La géométrie</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>La géométrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Le calendrier</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Le calendrier</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Quelle heure est-il ?</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Quelle heure est-il ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Les locutions</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Les locutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Les chiffres</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Les chiffres</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Les quantités</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Les quantités</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>La science</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>La science</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>S'exprimer</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>S'exprimer</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>La rencontre</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>La rencontre</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>L'amitié</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>L'amitié</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>L'aide</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>L'aide</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>La morale</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>La morale</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Les qualités</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Les qualités</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>La vie affective</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>La vie affective</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>L'intelligence</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>L'intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>La voluntad</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>La volonté</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>La educación</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>L'éducation</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>La familia</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>La famille</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>La casa</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>La maison</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>La cocina</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>La cuisine</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>La habitación</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>La chambre</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>El baño</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>La salle de bains</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>La ropa</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Les vêtements</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>La comida</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>La nourriture</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>El desayuno</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Le petit-déjeuner</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>El postre</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Le dessert</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>El tabaco</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Le tabac</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Las bebidas</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Les boissons</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Guisar, cocinar</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Cuisiner</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>La vida cotidiana</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>La vie quotidienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>La lengua</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>La langue</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>El idioma</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>La langue</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>El dialecto</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Le dialecte</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>La jerga</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>L'argot</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>La lingüística</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>La linguistique</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>El diccionario</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Le dictionnaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>La pronunciación</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>La prononciation</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>El acento</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>L'accent</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>La fonética</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>La phonétique</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>El significado</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Le sens</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>El antónimo</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>L'antonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>El sinónimo</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Le synonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>La expresión</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>L'expression</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>La frase</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>La phrase</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>La oración</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>La proposition</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>La conjugación</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>La conjugaison</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>La ortografía</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>L'orthographe</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>El editor</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>L'éditeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>La publicación</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>La publication</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>El autor</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>L'auteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>El manuscrito</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Le manuscrit</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>La escritura</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>L'écriture</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>La edición</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>L'édition</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>La gramática</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>La grammaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>La literatura</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>La littérature</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>La poesía</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>La poésie</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>El teatro</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Le théâtre</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>El cine</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Le cinéma</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>La historia</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>L'histoire</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>La política</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>La politique</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>La economía</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>L'économie</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>La ciencia</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>La science</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>La filosofía</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>La philosophie</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>La sociología</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>La sociologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>La psicología</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>La psychologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>La antropología</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>L'anthropologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>La geografía</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>La géographie</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>La biología</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>La biologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>La química</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>La chimie</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>La física</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>La physique</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>La matemática</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Les mathématiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>La informática</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>L'informatique</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>La enseñanza</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>L'enseignement</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>La formación</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>La formation</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>La capacitación</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>La qualification</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>La experiencia</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>L'expérience</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>La práctica</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>La pratique</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>La teoría</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>La théorie</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>La investigación</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>La recherche</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>La innovación</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>L'innovation</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>La invención</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>L'invention</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>El descubrimiento</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>La découverte</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>La patente</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Le brevet</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>El experimento</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>L'expérience</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>La hipótesis</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>L'hypothèse</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>La conclusión</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>La conclusion</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>La discusión</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>La discussion</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>La argumentación</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>L'argumentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>La opinión</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>L'opinion</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>La crítica</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>La critique</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>La evaluación</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>L'évaluation</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>La comparación</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>La comparaison</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>La clasificación</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>La classification</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>La descripción</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>La description</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>La narración</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>La narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>La exposición</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>L'exposition</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>La presentación</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>La présentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>La interpretación</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>L'interprétation</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>La traducción</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>La traduction</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>La adaptación</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>L'adaptation</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>La modificación</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>La modification</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>La transformación</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>La transformation</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>La evolución</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>L'évolution</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>La revolución</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>La révolution</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>La guerra</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>La guerre</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>La paz</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>La paix</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>La justicia</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>La justice</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>La libertad</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>La liberté</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>La igualdad</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>L'égalité</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>La fraternité</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>La fraternité</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>La solidaridad</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>La solidarité</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>La dignidad</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>La dignité</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>La humanidad</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>L'humanité</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>La vida</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>La vie</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>La muerte</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>La mort</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>La esperanza</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>L'espoir</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>La fe</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>La foi</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>La religión</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>La religion</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>La espiritualidad</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>La spiritualité</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>La moralidad</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>La moralité</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>La ética</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>L'éthique</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>La tecnología</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>La technologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>La comunicación</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>La communication</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>La información</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>L'information</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>La révolution</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>La révolution</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
